--- a/biology/Botanique/Agave_salmiana_var._ferox/Agave_salmiana_var._ferox.xlsx
+++ b/biology/Botanique/Agave_salmiana_var._ferox/Agave_salmiana_var._ferox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave salmiana var. ferox est une variété de plantes à fleurs de l'espèce Agave salmiana appartenant au genre Agave et à la famille des Asparagaceae (sous famille des Agavoideae).
 Elle est très proche de l'espèce type en termes de description et de mode de culture.
-Elle s'en différencie par des feuilles encore plus épaisses et rigides, un aiguillon terminal (jusqu'à 8 cm) et des épines latérales encore plus acérées [3]. C'est aussi ce qui lui a valu son nom.
+Elle s'en différencie par des feuilles encore plus épaisses et rigides, un aiguillon terminal (jusqu'à 8 cm) et des épines latérales encore plus acérées . C'est aussi ce qui lui a valu son nom.
 </t>
         </is>
       </c>
